--- a/emails.xlsx
+++ b/emails.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.apple.com/</t>
+          <t>https://www.nonprofitexample.org</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,60 +460,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/</t>
+          <t>https://www.scholarlyblog.edu</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No email found</t>
+          <t>Error fetching email</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.spotify.com/</t>
+          <t>https://www.photographerportfolio.com</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No email found</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.airbnb.com/</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>No email found</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tesla.com/</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>Error fetching email</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.jackinthebox.com/</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>No email found</t>
         </is>
       </c>
     </row>
